--- a/simulations/simu_1/results.xlsx
+++ b/simulations/simu_1/results.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>AMORT_PV</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>failure</t>
+  </si>
+  <si>
+    <t>radiality</t>
+  </si>
+  <si>
+    <t>single_commodity</t>
   </si>
 </sst>
 </file>
@@ -484,7 +490,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -532,225 +538,233 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="b">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>50</v>
+        <v>4</v>
+      </c>
+      <c r="B7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="b">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>7.0</v>
+        <v>6</v>
+      </c>
+      <c r="B9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="b">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>7.0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="B11" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>500.0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="b">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>500.0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="B14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16">
-        <v>0.1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17">
-        <v>1000.0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" t="b">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>1000.0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>0.1</v>
+        <v>16</v>
+      </c>
+      <c r="B19" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20">
-        <v>80.0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21">
-        <v>0.3</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" t="b">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>0.3</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="B23" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="b">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>1.0</v>
+        <v>23</v>
+      </c>
+      <c r="B25" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>0.01</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0.01</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28">
-        <v>0.9</v>
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>1.0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>0.4</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>0.4</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32">
-        <v>0.06</v>
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
         <v>34</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <v>15</v>
       </c>
     </row>
